--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_Vietcom.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang9/2.XulyBH/XLBH2209_Vietcom.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOP-1" sheetId="54" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -232,13 +232,82 @@
   </si>
   <si>
     <t>TOP-1</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>quanly365.vn,08091</t>
+  </si>
+  <si>
+    <t>Lock: quanly365.vn,08091</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại data sim</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại MCU</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>MCU,NCFW</t>
+  </si>
+  <si>
+    <t>Imei: 867857039904474</t>
+  </si>
+  <si>
+    <t>Thiết bị sai imei trên vỏ</t>
+  </si>
+  <si>
+    <t>Dán lại imei, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Thay connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Sai tên miền</t>
+  </si>
+  <si>
+    <t>Cấu hình lại tên miền</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GSM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,12 +376,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -440,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,6 +709,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -661,43 +751,13 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1039,41 +1099,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1118,58 +1178,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -1194,23 +1254,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,31 +1280,51 @@
       <c r="B6" s="57">
         <v>44830</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="84" t="s">
+      <c r="C6" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="85">
         <v>868183038610163</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="I6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="3"/>
+      <c r="O6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="67"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1256,26 +1336,26 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="67"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1304,7 +1384,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1333,7 +1413,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1362,7 +1442,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1471,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1500,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1451,7 +1531,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1480,7 +1560,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1509,7 +1589,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1538,7 +1618,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1736,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2125,7 +2205,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2189,7 +2269,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3282,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3315,41 +3395,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3394,58 +3474,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="72" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
       </c>
@@ -3470,23 +3550,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3496,31 +3576,49 @@
       <c r="B6" s="57">
         <v>44830</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="84" t="s">
+      <c r="C6" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="66">
         <v>868183035911515</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="58"/>
-      <c r="I6" s="59"/>
+      <c r="I6" s="59" t="s">
+        <v>67</v>
+      </c>
       <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
+      <c r="K6" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="63"/>
+      <c r="O6" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="67"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3535,31 +3633,53 @@
       <c r="B7" s="57">
         <v>44830</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="84" t="s">
+      <c r="C7" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="66">
         <v>867857039940429</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
+      <c r="H7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>80</v>
+      </c>
       <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="63"/>
+      <c r="O7" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="67"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3572,31 +3692,51 @@
       <c r="B8" s="57">
         <v>44830</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="84" t="s">
+      <c r="C8" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="66">
         <v>867857039910653</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H8" s="58"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
+      <c r="I8" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>83</v>
+      </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="63"/>
+      <c r="O8" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="63" t="s">
+        <v>84</v>
+      </c>
       <c r="S8" s="67"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3609,31 +3749,51 @@
       <c r="B9" s="57">
         <v>44830</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="66">
         <v>867857039936641</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84" t="s">
+      <c r="F9" s="58"/>
+      <c r="G9" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
+      <c r="I9" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="63"/>
+      <c r="O9" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="67"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3646,31 +3806,49 @@
       <c r="B10" s="57">
         <v>44830</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="84" t="s">
+      <c r="C10" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="66">
         <v>868183037796872</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84" t="s">
+      <c r="F10" s="58"/>
+      <c r="G10" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="I10" s="59" t="s">
+        <v>67</v>
+      </c>
       <c r="J10" s="60"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
+      <c r="K10" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="63"/>
+      <c r="O10" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="67"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3683,31 +3861,49 @@
       <c r="B11" s="57">
         <v>44830</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="84" t="s">
+      <c r="C11" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D11" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="66">
         <v>868183034697982</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84" t="s">
+      <c r="F11" s="58"/>
+      <c r="G11" s="58" t="s">
         <v>62</v>
       </c>
       <c r="H11" s="68"/>
-      <c r="I11" s="59"/>
+      <c r="I11" s="59" t="s">
+        <v>67</v>
+      </c>
       <c r="J11" s="60"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
+      <c r="K11" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>38</v>
+      </c>
       <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="63"/>
+      <c r="O11" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="63" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="67"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3720,31 +3916,51 @@
       <c r="B12" s="57">
         <v>44830</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="84" t="s">
+      <c r="C12" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D12" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="66">
         <v>868183035873178</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84" t="s">
+      <c r="F12" s="58"/>
+      <c r="G12" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" s="67"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3759,31 +3975,49 @@
       <c r="B13" s="57">
         <v>44830</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="84" t="s">
+      <c r="C13" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="66">
         <v>868183037845117</v>
       </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" s="67"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3796,33 +4030,53 @@
       <c r="B14" s="57">
         <v>44830</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="84" t="s">
+      <c r="C14" s="57">
+        <v>44831</v>
+      </c>
+      <c r="D14" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="66">
         <v>868183034752100</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
+      <c r="H14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="67"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3851,7 +4105,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3880,7 +4134,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3998,7 +4252,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4062,7 +4316,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -4179,7 +4433,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -4339,7 +4593,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4371,7 +4625,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -4467,7 +4721,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4531,7 +4785,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4884,7 +5138,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5657,39 +5911,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5734,58 +5988,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -5810,23 +6064,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="76"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,7 +6106,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5883,7 +6137,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="70"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5912,7 +6166,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="70"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5941,7 +6195,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="70"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5970,7 +6224,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="70"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5999,7 +6253,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="70"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6028,7 +6282,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6059,7 +6313,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="70"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6088,7 +6342,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="70"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6117,7 +6371,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="70"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6146,7 +6400,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="71"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
